--- a/Jogos_do_Dia/2023-10-19_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-10-19_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AQ18"/>
+  <dimension ref="A1:AQ19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -691,13 +691,13 @@
         <v>2.75</v>
       </c>
       <c r="J2" t="n">
-        <v>3.33</v>
+        <v>3.65</v>
       </c>
       <c r="K2" t="n">
-        <v>3.15</v>
+        <v>3.45</v>
       </c>
       <c r="L2" t="n">
-        <v>2.03</v>
+        <v>2.16</v>
       </c>
       <c r="M2" t="n">
         <v>1.3</v>
@@ -718,10 +718,10 @@
         <v>4.45</v>
       </c>
       <c r="S2" t="n">
-        <v>1.78</v>
+        <v>1.88</v>
       </c>
       <c r="T2" t="n">
-        <v>1.89</v>
+        <v>2.01</v>
       </c>
       <c r="U2" t="n">
         <v>1.53</v>
@@ -778,7 +778,7 @@
         <v>1.9</v>
       </c>
       <c r="AM2" t="n">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="AN2" t="n">
         <v>2.44</v>
@@ -830,13 +830,13 @@
         <v>3.7</v>
       </c>
       <c r="J3" t="n">
-        <v>2.2</v>
+        <v>2.41</v>
       </c>
       <c r="K3" t="n">
-        <v>2.72</v>
+        <v>3.05</v>
       </c>
       <c r="L3" t="n">
-        <v>2.72</v>
+        <v>3</v>
       </c>
       <c r="M3" t="n">
         <v>1.53</v>
@@ -857,10 +857,10 @@
         <v>2.65</v>
       </c>
       <c r="S3" t="n">
-        <v>2.22</v>
+        <v>2.35</v>
       </c>
       <c r="T3" t="n">
-        <v>1.47</v>
+        <v>1.55</v>
       </c>
       <c r="U3" t="n">
         <v>1.9</v>
@@ -902,10 +902,10 @@
         <v>2.1</v>
       </c>
       <c r="AH3" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AI3" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="AJ3" t="n">
         <v>1.53</v>
@@ -926,10 +926,10 @@
         <v>1.47</v>
       </c>
       <c r="AP3" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="4">
@@ -969,13 +969,13 @@
         <v>3</v>
       </c>
       <c r="J4" t="n">
-        <v>3.32</v>
+        <v>3</v>
       </c>
       <c r="K4" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="L4" t="n">
-        <v>2.23</v>
+        <v>2.36</v>
       </c>
       <c r="M4" t="n">
         <v>1.5</v>
@@ -996,10 +996,10 @@
         <v>2.99</v>
       </c>
       <c r="S4" t="n">
-        <v>2.28</v>
+        <v>2.25</v>
       </c>
       <c r="T4" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="U4" t="n">
         <v>1.91</v>
@@ -1108,13 +1108,13 @@
         <v>3.6</v>
       </c>
       <c r="J5" t="n">
-        <v>2.09</v>
+        <v>2.23</v>
       </c>
       <c r="K5" t="n">
-        <v>2.85</v>
+        <v>3.2</v>
       </c>
       <c r="L5" t="n">
-        <v>2.93</v>
+        <v>3.15</v>
       </c>
       <c r="M5" t="n">
         <v>1.48</v>
@@ -1135,10 +1135,10 @@
         <v>2.9</v>
       </c>
       <c r="S5" t="n">
-        <v>2.04</v>
+        <v>2.15</v>
       </c>
       <c r="T5" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="U5" t="n">
         <v>1.9</v>
@@ -1204,10 +1204,10 @@
         <v>1.42</v>
       </c>
       <c r="AP5" t="n">
-        <v>0</v>
+        <v>3.18</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="6">
@@ -1343,10 +1343,10 @@
         <v>1.39</v>
       </c>
       <c r="AP6" t="n">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="AQ6" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="7">
@@ -1482,10 +1482,10 @@
         <v>1.34</v>
       </c>
       <c r="AP7" t="n">
-        <v>0</v>
+        <v>4.4</v>
       </c>
       <c r="AQ7" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="8">
@@ -1525,13 +1525,13 @@
         <v>3.2</v>
       </c>
       <c r="J8" t="n">
-        <v>2.98</v>
+        <v>2.95</v>
       </c>
       <c r="K8" t="n">
-        <v>2.97</v>
+        <v>3.1</v>
       </c>
       <c r="L8" t="n">
-        <v>2.44</v>
+        <v>2.38</v>
       </c>
       <c r="M8" t="n">
         <v>1.5</v>
@@ -1552,10 +1552,10 @@
         <v>2.75</v>
       </c>
       <c r="S8" t="n">
-        <v>2.36</v>
+        <v>2.25</v>
       </c>
       <c r="T8" t="n">
-        <v>1.42</v>
+        <v>1.6</v>
       </c>
       <c r="U8" t="n">
         <v>1.91</v>
@@ -1621,10 +1621,10 @@
         <v>1.4</v>
       </c>
       <c r="AP8" t="n">
-        <v>0</v>
+        <v>3.48</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="9">
@@ -1736,22 +1736,22 @@
         <v>1.75</v>
       </c>
       <c r="AH9" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AI9" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="AK9" t="n">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="AL9" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="AM9" t="n">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="AN9" t="n">
         <v>2.18</v>
@@ -1760,16 +1760,16 @@
         <v>1.62</v>
       </c>
       <c r="AP9" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AQ9" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Brazil Serie B</t>
+          <t>Brazil Serie A</t>
         </is>
       </c>
       <c r="B10" s="2" t="n">
@@ -1781,98 +1781,98 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Tombense</t>
+          <t>Cruzeiro</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Vila Nova</t>
+          <t>Flamengo</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="H10" t="n">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="I10" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="J10" t="n">
-        <v>2.53</v>
+        <v>3.04</v>
       </c>
       <c r="K10" t="n">
-        <v>2.72</v>
+        <v>3.04</v>
       </c>
       <c r="L10" t="n">
-        <v>2.72</v>
+        <v>2.18</v>
       </c>
       <c r="M10" t="n">
-        <v>1.54</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>2.34</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>1.11</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="T10" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AA10" t="n">
         <v>1.57</v>
       </c>
-      <c r="R10" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="S10" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="T10" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="U10" t="n">
-        <v>2</v>
-      </c>
-      <c r="V10" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="W10" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="X10" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>1.31</v>
-      </c>
       <c r="AB10" t="n">
-        <v>1.65</v>
+        <v>1.68</v>
       </c>
       <c r="AC10" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AD10" t="n">
         <v>3.12</v>
       </c>
       <c r="AE10" t="n">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="AF10" t="n">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="AG10" t="n">
-        <v>0</v>
+        <v>2.23</v>
       </c>
       <c r="AH10" t="n">
         <v>0</v>
@@ -1881,34 +1881,34 @@
         <v>0</v>
       </c>
       <c r="AJ10" t="n">
-        <v>1.26</v>
+        <v>0</v>
       </c>
       <c r="AK10" t="n">
-        <v>3.4</v>
+        <v>0</v>
       </c>
       <c r="AL10" t="n">
-        <v>1.47</v>
+        <v>0</v>
       </c>
       <c r="AM10" t="n">
-        <v>2.37</v>
+        <v>0</v>
       </c>
       <c r="AN10" t="n">
-        <v>1.88</v>
+        <v>0</v>
       </c>
       <c r="AO10" t="n">
-        <v>1.93</v>
+        <v>0</v>
       </c>
       <c r="AP10" t="n">
-        <v>2.37</v>
+        <v>0</v>
       </c>
       <c r="AQ10" t="n">
-        <v>1.49</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Brazil Serie B</t>
+          <t>Brazil Serie A</t>
         </is>
       </c>
       <c r="B11" s="2" t="n">
@@ -1920,134 +1920,134 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Atlético GO</t>
+          <t>Palmeiras</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>ABC</t>
+          <t>Atlético Mineiro</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.98</v>
+        <v>2.63</v>
       </c>
       <c r="H11" t="n">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="I11" t="n">
-        <v>6.75</v>
+        <v>4.75</v>
       </c>
       <c r="J11" t="n">
-        <v>1.44</v>
+        <v>1.76</v>
       </c>
       <c r="K11" t="n">
-        <v>4.15</v>
+        <v>3.2</v>
       </c>
       <c r="L11" t="n">
-        <v>8.1</v>
+        <v>4.27</v>
       </c>
       <c r="M11" t="n">
-        <v>1.44</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>2.6</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>1.07</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="T11" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="U11" t="n">
+        <v>2</v>
+      </c>
+      <c r="V11" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AF11" t="n">
         <v>8.5</v>
       </c>
-      <c r="Q11" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="R11" t="n">
-        <v>3</v>
-      </c>
-      <c r="S11" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="T11" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="U11" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="V11" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="W11" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="X11" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>0</v>
-      </c>
       <c r="AG11" t="n">
-        <v>0</v>
+        <v>2.85</v>
       </c>
       <c r="AH11" t="n">
-        <v>1.18</v>
+        <v>0</v>
       </c>
       <c r="AI11" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="AJ11" t="n">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="AK11" t="n">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="AL11" t="n">
-        <v>1.63</v>
+        <v>1.83</v>
       </c>
       <c r="AM11" t="n">
-        <v>2.05</v>
+        <v>0</v>
       </c>
       <c r="AN11" t="n">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="AO11" t="n">
-        <v>1.62</v>
+        <v>0</v>
       </c>
       <c r="AP11" t="n">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="AQ11" t="n">
-        <v>1.36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Brazil Serie A</t>
+          <t>Brazil Serie B</t>
         </is>
       </c>
       <c r="B12" s="2" t="n">
@@ -2059,59 +2059,59 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Palmeiras</t>
+          <t>Tombense</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Atlético Mineiro</t>
+          <t>Vila Nova</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="I12" t="n">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="J12" t="n">
-        <v>1.79</v>
+        <v>2.65</v>
       </c>
       <c r="K12" t="n">
-        <v>3.21</v>
+        <v>2.85</v>
       </c>
       <c r="L12" t="n">
-        <v>4.33</v>
+        <v>2.85</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>2.34</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="S12" t="n">
-        <v>2.12</v>
+        <v>2.4</v>
       </c>
       <c r="T12" t="n">
-        <v>1.72</v>
+        <v>1.5</v>
       </c>
       <c r="U12" t="n">
         <v>2</v>
@@ -2120,73 +2120,73 @@
         <v>1.75</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="Z12" t="n">
-        <v>2.17</v>
+        <v>1.19</v>
       </c>
       <c r="AA12" t="n">
-        <v>1.46</v>
+        <v>1.31</v>
       </c>
       <c r="AB12" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AO12" t="n">
         <v>1.93</v>
       </c>
-      <c r="AC12" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>3.28</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>2.85</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>0</v>
-      </c>
       <c r="AP12" t="n">
-        <v>0</v>
+        <v>2.37</v>
       </c>
       <c r="AQ12" t="n">
-        <v>0</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Brazil Serie A</t>
+          <t>Brazil Serie B</t>
         </is>
       </c>
       <c r="B13" s="2" t="n">
@@ -2198,128 +2198,128 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Cruzeiro</t>
+          <t>Atlético GO</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Flamengo</t>
+          <t>ABC</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>4</v>
+        <v>1.98</v>
       </c>
       <c r="H13" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="I13" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="K13" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="L13" t="n">
+        <v>8</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="N13" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="P13" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="R13" t="n">
+        <v>3</v>
+      </c>
+      <c r="S13" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="T13" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="U13" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V13" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="W13" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="X13" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>9</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AM13" t="n">
         <v>2.05</v>
       </c>
-      <c r="I13" t="n">
-        <v>3</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2.86</v>
-      </c>
-      <c r="K13" t="n">
-        <v>3.08</v>
-      </c>
-      <c r="L13" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>0</v>
-      </c>
-      <c r="R13" t="n">
-        <v>0</v>
-      </c>
-      <c r="S13" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="T13" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="U13" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V13" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="W13" t="n">
-        <v>0</v>
-      </c>
-      <c r="X13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>3.12</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>0</v>
-      </c>
       <c r="AN13" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AO13" t="n">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="AP13" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="AQ13" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="14">
@@ -2362,10 +2362,10 @@
         <v>1.89</v>
       </c>
       <c r="K14" t="n">
-        <v>3.38</v>
+        <v>3.4</v>
       </c>
       <c r="L14" t="n">
-        <v>3.87</v>
+        <v>3.9</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -2386,10 +2386,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>1.97</v>
+        <v>2.01</v>
       </c>
       <c r="T14" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -2498,13 +2498,13 @@
         <v>3.1</v>
       </c>
       <c r="J15" t="n">
-        <v>2.58</v>
+        <v>2.71</v>
       </c>
       <c r="K15" t="n">
-        <v>3.09</v>
+        <v>3.1</v>
       </c>
       <c r="L15" t="n">
-        <v>2.58</v>
+        <v>2.36</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -2525,10 +2525,10 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>2.06</v>
+        <v>2.25</v>
       </c>
       <c r="T15" t="n">
-        <v>1.76</v>
+        <v>1.62</v>
       </c>
       <c r="U15" t="n">
         <v>1.91</v>
@@ -2637,13 +2637,13 @@
         <v>2.35</v>
       </c>
       <c r="J16" t="n">
-        <v>3.91</v>
+        <v>4.5</v>
       </c>
       <c r="K16" t="n">
-        <v>3.56</v>
+        <v>3.5</v>
       </c>
       <c r="L16" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="M16" t="n">
         <v>1.39</v>
@@ -2664,10 +2664,10 @@
         <v>3.2</v>
       </c>
       <c r="S16" t="n">
-        <v>1.82</v>
+        <v>1.94</v>
       </c>
       <c r="T16" t="n">
-        <v>1.89</v>
+        <v>1.84</v>
       </c>
       <c r="U16" t="n">
         <v>1.85</v>
@@ -2700,43 +2700,43 @@
         <v>3.15</v>
       </c>
       <c r="AE16" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AF16" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AG16" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="AH16" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AI16" t="n">
-        <v>0</v>
+        <v>3.42</v>
       </c>
       <c r="AJ16" t="n">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="AK16" t="n">
-        <v>0</v>
+        <v>2.27</v>
       </c>
       <c r="AL16" t="n">
-        <v>0</v>
+        <v>1.96</v>
       </c>
       <c r="AM16" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="AN16" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="AO16" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="AP16" t="n">
-        <v>0</v>
+        <v>3.18</v>
       </c>
       <c r="AQ16" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="17">
@@ -2866,16 +2866,16 @@
         <v>1.73</v>
       </c>
       <c r="AN17" t="n">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="AO17" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="AP17" t="n">
-        <v>0</v>
+        <v>3.85</v>
       </c>
       <c r="AQ17" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="18">
@@ -3015,6 +3015,145 @@
       </c>
       <c r="AQ18" t="n">
         <v>1.25</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Brazil Serie A</t>
+        </is>
+      </c>
+      <c r="B19" s="2" t="n">
+        <v>45218</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>21:30:00</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>27</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Fluminense</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Corinthians</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="H19" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>6</v>
+      </c>
+      <c r="J19" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="K19" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="L19" t="n">
+        <v>5.21</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="T19" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="U19" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V19" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0</v>
+      </c>
+      <c r="X19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
